--- a/Hardware/Basic/HopeToPass-BASIC-BOM.xlsx
+++ b/Hardware/Basic/HopeToPass-BASIC-BOM.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmandali\OneDrive\Documents\HopeToPass\Hardware\Basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345D0138-E9CC-46B1-89D7-9577F8747793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="144" windowWidth="10632" windowHeight="6648" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -429,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
   <si>
     <t>BOM #</t>
   </si>
@@ -602,14 +611,273 @@
     <t>RMCF0603FT10K0CT-ND</t>
   </si>
   <si>
-    <t>Design Name -- Revision Code / Designer or Organization Name</t>
+    <t>HopeToPass -- A / Falak Mandali</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>Adafruit Feather nRF52</t>
+  </si>
+  <si>
+    <t>- Transceiver; Bluetooth® Smart 4.x Low Energy (BLE) For Use With nRF52832</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Adafruit Industries LLC</t>
+  </si>
+  <si>
+    <t>1528-2095-ND</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>C1, C6, C7, C16</t>
+  </si>
+  <si>
+    <t>10 uF Capacitor</t>
+  </si>
+  <si>
+    <t>10µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>GRM188R61A106KE69J</t>
+  </si>
+  <si>
+    <t>490-14372-1-ND</t>
+  </si>
+  <si>
+    <t>C2, C10</t>
+  </si>
+  <si>
+    <t>10µH Inductor</t>
+  </si>
+  <si>
+    <t>10µH Shielded Multilayer Inductor 250mA 1.05Ohm 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>MLZ1608M100WTD25</t>
+  </si>
+  <si>
+    <t>22u capacitor</t>
+  </si>
+  <si>
+    <t>22µF ±20% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A226MP8NUNE</t>
+  </si>
+  <si>
+    <t>1276-1274-1-ND</t>
+  </si>
+  <si>
+    <t>CRYSTALECS-.327-12.5-12-C-TR (CRYSTAL) (32.7680kHz)</t>
+  </si>
+  <si>
+    <t>32.768kHz ±10ppm Crystal 12.5pF 90 kOhms 2-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>2-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>ECS-.327-12.5-12-C-TR</t>
+  </si>
+  <si>
+    <t>XC2288CT-ND</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>Red 622nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Inolux</t>
+  </si>
+  <si>
+    <t>IN-S63ATR</t>
+  </si>
+  <si>
+    <t>1830-1065-1-ND</t>
+  </si>
+  <si>
+    <t>Blue LED</t>
+  </si>
+  <si>
+    <t>Blue 470nm LED Indication - Discrete 3V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>IN-S63AT5B</t>
+  </si>
+  <si>
+    <t>1830-1061-1-ND</t>
+  </si>
+  <si>
+    <t>1k Resistor</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>Cortex Debug Connector - 10 pin</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 10 position 0.050" (1.27mm)</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>20021111-00010T4LF</t>
+  </si>
+  <si>
+    <t>609-3712-ND</t>
+  </si>
+  <si>
+    <t>100 nF Capacitor</t>
+  </si>
+  <si>
+    <t>0.1µF ±5% 16V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R7BB104</t>
+  </si>
+  <si>
+    <t>311-1776-1-ND</t>
+  </si>
+  <si>
+    <t>10k Resistor</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 1A PMDU</t>
+  </si>
+  <si>
+    <t>Diode Schottky 30 V 1A Surface Mount PMDU</t>
+  </si>
+  <si>
+    <t>SOD-123F</t>
+  </si>
+  <si>
+    <t>Rohm Semiconductor</t>
+  </si>
+  <si>
+    <t>RSX101MM-30TR</t>
+  </si>
+  <si>
+    <t>RSX101MM-30TR-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/rohm-semiconductor/RSX101MM-30TR/5001873 </t>
+  </si>
+  <si>
+    <t>0.96" OLED</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>Datasheet 128x64 OLED Module SPI 0.96"Graphic Displays,White on Black</t>
+  </si>
+  <si>
+    <t>Flexible Connector</t>
+  </si>
+  <si>
+    <t>EastRising</t>
+  </si>
+  <si>
+    <t>https://www.buydisplay.com/datasheet-128x64-oled-module-spi-0-96-inch-graphic-displays-white-on-black</t>
+  </si>
+  <si>
+    <t>BuyDisplay.com</t>
+  </si>
+  <si>
+    <t>2.2uF capacitor</t>
+  </si>
+  <si>
+    <t>2.2µF ±10% 16V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Murata Electronics North America</t>
+  </si>
+  <si>
+    <t>GRM188R61C225KE15D</t>
+  </si>
+  <si>
+    <t>490-3296-1-ND</t>
+  </si>
+  <si>
+    <t>390k resistor</t>
+  </si>
+  <si>
+    <t>390 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FG390K</t>
+  </si>
+  <si>
+    <t>RMCF0603FG390KCT-ND</t>
+  </si>
+  <si>
+    <t>PCF8523</t>
+  </si>
+  <si>
+    <t>Real Time Clock (RTC) IC Clock/Calendar I²C, 2-Wire Serial 8-SOIC (0.154", 3.90mm Width)</t>
+  </si>
+  <si>
+    <t>8-SO</t>
+  </si>
+  <si>
+    <t>NXP USA Inc.</t>
+  </si>
+  <si>
+    <t>PCF8523T/1,118</t>
+  </si>
+  <si>
+    <t>568-5306-1-ND</t>
+  </si>
+  <si>
+    <t>MIC5504-1.8V</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC 1 Output 300mA SOT-23-5</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>MIC5504-1.8YM5-TR</t>
+  </si>
+  <si>
+    <t>576-4879-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
@@ -856,7 +1124,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,6 +1162,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="82">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1314,30 +1584,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:AS28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" style="1"/>
+    <col min="12" max="12" width="6.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>57</v>
       </c>
@@ -1356,17 +1626,17 @@
       </c>
       <c r="M1" s="6">
         <f>SUM(M3:M77)</f>
-        <v>2.48</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="O1" s="6">
         <f>SUM(O3:O77)</f>
-        <v>1.1271</v>
+        <v>1.5270999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>1</f>
         <v>1</v>
@@ -1463,7 +1733,7 @@
         <v>0.1391</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1512,7 +1782,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1559,7 +1829,7 @@
         <v>0.3982</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1608,7 +1878,7 @@
         <v>9.0899999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1657,7 +1927,7 @@
         <v>2.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1704,6 +1974,729 @@
       <c r="O8" s="10">
         <f>L8*N8</f>
         <v>1.8499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="K10" s="10"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3406</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="10">
+        <v>24.95</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="15">
+        <f>K11*L11</f>
+        <v>24.95</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f>L11*N11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>603</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="15">
+        <f>K12*L12</f>
+        <v>0.4</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="1">
+        <f>L12*N12</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>603</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="15">
+        <f>K13*L13</f>
+        <v>0.12</v>
+      </c>
+      <c r="N13" s="16">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>603</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>603</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+      <c r="N15" s="16">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="M16" s="1">
+        <v>10</v>
+      </c>
+      <c r="N16" s="16">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>603</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="M17" s="1">
+        <v>20</v>
+      </c>
+      <c r="N17" s="16">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <v>603</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="M18" s="1">
+        <v>20</v>
+      </c>
+      <c r="N18" s="16">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>603</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6</v>
+      </c>
+      <c r="N20" s="16">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1">
+        <v>603</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+      <c r="N21" s="16">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1">
+        <v>603</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" s="16">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="16">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1">
+        <v>603</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="16">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1">
+        <v>603</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="M27" s="1">
+        <v>6</v>
+      </c>
+      <c r="N27" s="16">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="16">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -1711,8 +2704,8 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
